--- a/DP1-G12-350-1257/submission/DP1/Documentation/ActivityLogs/ProjectLog-G12-5814-350-1257.xlsx
+++ b/DP1-G12-350-1257/submission/DP1/Documentation/ActivityLogs/ProjectLog-G12-5814-350-1257.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edafb57772ce9388/Desktop/SFU/2025/FALL 2025/ENSC350/ENSC-350/DP1-G12-350-1257/Documentation/ActivityLogs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edafb57772ce9388/Desktop/SFU/2025/FALL 2025/ENSC350/ENSC-350/DP1-G12-350-1257/submission/DP1/Documentation/ActivityLogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{9F9BD470-D14E-48DE-AD90-2993DBB3CE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{801B6678-B478-40B5-AAAC-9386EC53452E}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{9F9BD470-D14E-48DE-AD90-2993DBB3CE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C50F805-E766-4595-B988-112F7E15FB62}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="uphip+fyQmgTbQWVslgKndYGTCUT2nMCnU8pTyuiPxh9t3MkaNQeLeeV1eDZUH8uYM8JtsIZJzZApwnnbRUEcA==" workbookSaltValue="PVE5+bPUyqyV9jE5EaqSxw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
+    <workbookView xWindow="12280" yWindow="2450" windowWidth="23890" windowHeight="15370" activeTab="1" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="DP1.0" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -473,6 +473,21 @@
   </si>
   <si>
     <t>Debugged testbench for conditional sum adder topology and generated run_ripple.do and Sim-Transcript-Ripple.txt from .do file simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrote the introduction, added the appendix, and wrote the directory structure, including what each folder/file includes in the report </t>
+  </si>
+  <si>
+    <t>12/10/2025</t>
+  </si>
+  <si>
+    <t>improved circuit diagrams, added flow chart to experimental procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">improved Adder00.tvs and wrote the testbench section of report, added a flowchart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structured report document and submission folder </t>
   </si>
 </sst>
 </file>
@@ -1202,6 +1217,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -3325,7 +3344,7 @@
   <dimension ref="A1:I783"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3445,7 +3464,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E7" s="20">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="15" t="s">
@@ -3453,7 +3472,7 @@
       </c>
       <c r="H7" s="11">
         <f t="shared" ref="H7" si="0">(E7-D7)*24</f>
-        <v>0.49999999999999822</v>
+        <v>0.99999999999999911</v>
       </c>
       <c r="I7" s="9"/>
     </row>
@@ -3512,7 +3531,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="19">
-        <v>0.75</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="E10" s="22">
         <v>0.78125</v>
@@ -3523,7 +3542,7 @@
       </c>
       <c r="H10" s="26">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.99999999999999911</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
@@ -3581,10 +3600,10 @@
         <v>32</v>
       </c>
       <c r="D13" s="19">
-        <v>0.72916666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="E13" s="22">
-        <v>0.76041666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="16" t="s">
@@ -3592,59 +3611,99 @@
       </c>
       <c r="H13" s="26">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>1.2500000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="31"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.80208333333333337</v>
+      </c>
       <c r="F14" s="34"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="H14" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="31"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.65625</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.69791666666666663</v>
+      </c>
       <c r="F15" s="34"/>
-      <c r="G15" s="16"/>
+      <c r="G15" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="H15" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.99999999999999911</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="31"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F16" s="34"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.9999999999999982</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="31"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="22"/>
+      <c r="B17" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0.8125</v>
+      </c>
       <c r="F17" s="34"/>
-      <c r="G17" s="16"/>
+      <c r="G17" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="H17" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.50000000000000089</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
@@ -4457,7 +4516,7 @@
       <c r="F80" s="29"/>
       <c r="H80" s="28">
         <f>SUM(H7:H79)</f>
-        <v>8.9999999999999964</v>
+        <v>14.499999999999996</v>
       </c>
     </row>
     <row r="81" ht="24.9" customHeight="1" x14ac:dyDescent="0.35"/>
